--- a/doc/Journal/Journal.xlsx
+++ b/doc/Journal/Journal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alizoubir\Documents\ETML-ES-2eme\PROJ\2221_LocalisationSousMarine\doc\doc\Journal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alizoubir\Documents\ETML-ES-2eme\PROJ\2221_LocalisationSousMarine\doc\Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>Présentation pré-étude et début du schéma</t>
+  </si>
+  <si>
+    <t>Entrevue avec Mr. Muller pour de l'assistance mécanique, sur la conception d'un capteur de pression par mesure de la déformation mécanique.</t>
+  </si>
+  <si>
+    <t>Perte de temps due a l'absence</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>Progression sur la schématique du projet, dimensionnement partie alimentation.</t>
   </si>
 </sst>
 </file>
@@ -112,19 +124,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -407,82 +422,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="69.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="29.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>44881</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>44878</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>44895</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>44902</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>44909</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44565</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44572</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>44579</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/doc/Journal/Journal.xlsx
+++ b/doc/Journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Progression sur la schématique du projet, dimensionnement partie alimentation.</t>
+  </si>
+  <si>
+    <t>Avancement du rapport. Entrevue design mécanique avec Mr. Moreno et Mr. Muller.</t>
   </si>
 </sst>
 </file>
@@ -422,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -535,6 +538,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44586</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Journal/Journal.xlsx
+++ b/doc/Journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>DATE</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Avancement du rapport. Entrevue design mécanique avec Mr. Moreno et Mr. Muller.</t>
+  </si>
+  <si>
+    <t>Footprint, Bom, schéma bloc</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -452,7 +455,7 @@
     </row>
     <row r="2" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>44881</v>
+        <v>45246</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -463,7 +466,7 @@
     </row>
     <row r="3" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>44878</v>
+        <v>45243</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -474,7 +477,7 @@
     </row>
     <row r="4" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>44895</v>
+        <v>45260</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -485,7 +488,7 @@
     </row>
     <row r="5" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>44902</v>
+        <v>45267</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -496,7 +499,7 @@
     </row>
     <row r="6" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>44909</v>
+        <v>45274</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -507,7 +510,7 @@
     </row>
     <row r="7" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>44565</v>
+        <v>44930</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -518,7 +521,7 @@
     </row>
     <row r="8" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>44572</v>
+        <v>44937</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>9</v>
@@ -529,7 +532,7 @@
     </row>
     <row r="9" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>44579</v>
+        <v>44944</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -540,12 +543,23 @@
     </row>
     <row r="10" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>44586</v>
+        <v>44951</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>44958</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/doc/Journal/Journal.xlsx
+++ b/doc/Journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>DATE</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Footprint, Bom, schéma bloc</t>
+  </si>
+  <si>
+    <t>Ajout entrée analogique pour capteur de pression, màj du schèma et présentation de l'étude.</t>
   </si>
 </sst>
 </file>
@@ -428,9 +431,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -563,6 +566,17 @@
         <v>3</v>
       </c>
     </row>
+    <row r="12" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44965</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Journal/Journal.xlsx
+++ b/doc/Journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>DATE</t>
   </si>
@@ -72,6 +72,42 @@
   </si>
   <si>
     <t>Ajout entrée analogique pour capteur de pression, màj du schèma et présentation de l'étude.</t>
+  </si>
+  <si>
+    <t>Vacances</t>
+  </si>
+  <si>
+    <t>Montage</t>
+  </si>
+  <si>
+    <t>Montage et tests</t>
+  </si>
+  <si>
+    <t>Programmation firmware</t>
+  </si>
+  <si>
+    <t>Centrale inertiell BNO055</t>
+  </si>
+  <si>
+    <t>Carte SD</t>
+  </si>
+  <si>
+    <t>Tests et lectures</t>
+  </si>
+  <si>
+    <t>Design mécanique et tests</t>
+  </si>
+  <si>
+    <t>Implémentation capteur de pression</t>
+  </si>
+  <si>
+    <t>ADC - Capteur de pression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programmation firmware </t>
+  </si>
+  <si>
+    <t>Gestion des temps processeur</t>
   </si>
 </sst>
 </file>
@@ -431,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -577,6 +613,161 @@
         <v>3</v>
       </c>
     </row>
+    <row r="13" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>44972</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>44979</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>44986</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>44993</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45000</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45007</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45014</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45021</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45028</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45035</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45042</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45049</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>45056</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45063</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45070</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>45077</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Journal/Journal.xlsx
+++ b/doc/Journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>DATE</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Gestion des temps processeur</t>
+  </si>
+  <si>
+    <t>Finalisation de la programmation firmware</t>
+  </si>
+  <si>
+    <t>Finalisation de la programmation firmware + rapport</t>
   </si>
 </sst>
 </file>
@@ -467,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -768,6 +774,28 @@
         <v>27</v>
       </c>
     </row>
+    <row r="29" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>45084</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45091</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Journal/Journal.xlsx
+++ b/doc/Journal/Journal.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>DATE</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Finalisation de la programmation firmware + rapport</t>
+  </si>
+  <si>
+    <t>Rendu final du dossier</t>
   </si>
 </sst>
 </file>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -796,6 +799,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="31" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>45093</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Journal/Journal.xlsx
+++ b/doc/Journal/Journal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alizoubir\Documents\ETML-ES-2eme\PROJ\2221_LocalisationSousMarine\doc\Journal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alizoubir\Documents\ETML-ES-2eme\PROJ\2221_LocalisationSousMarine\doc\journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -186,14 +186,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -476,18 +476,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="29.85546875" defaultRowHeight="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="69.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.42578125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="29.85546875" style="3"/>
+    <col min="2" max="2" width="68" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="29.85546875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -502,18 +505,18 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>45246</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>45243</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -524,7 +527,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>45260</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -535,7 +538,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>45267</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -546,7 +549,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>45274</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -557,7 +560,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>44930</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -568,7 +571,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>44937</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -579,7 +582,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>44944</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -590,7 +593,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>44951</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -601,7 +604,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>44958</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -612,7 +615,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>44965</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -623,7 +626,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>44972</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -631,7 +634,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>44979</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -639,7 +642,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>44986</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -647,7 +650,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>44993</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -658,7 +661,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>45000</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -669,7 +672,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>45007</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -680,7 +683,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>45014</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -691,7 +694,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>45021</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -702,7 +705,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>45028</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -710,7 +713,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>45035</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -718,7 +721,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>45042</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -726,7 +729,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>45049</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -737,7 +740,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>45056</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -745,7 +748,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>45063</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -756,7 +759,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>45070</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -767,7 +770,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>45077</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -778,7 +781,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>45084</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -789,7 +792,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>45091</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -800,7 +803,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>45093</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -809,5 +812,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>